--- a/0315_0321/Tianchen_Wang.xlsx
+++ b/0315_0321/Tianchen_Wang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60111\bison-timesheets\0315_0321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911A7E3-587C-4FB4-A94C-740E9122C3F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD8D7F1-F444-47DB-9E42-D08B1A46ABEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5190" yWindow="4350" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -613,9 +613,7 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.4</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -624,7 +622,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5">
         <f t="shared" ref="I6:I14" si="0">SUM(B6:H6)</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -637,13 +635,15 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B6:B15)</f>
-        <v>4.4000000000000004</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ref="C16:H16" si="3">SUM(C6:C15)</f>
@@ -805,7 +805,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="I16" s="5">
         <f>SUM(I6:I15)</f>
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="J16" s="6"/>
     </row>
